--- a/files/information.xlsx
+++ b/files/information.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\calculate_scores\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6892D8-59E8-4CF7-84D4-F2D8A1EC1840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="126">
   <si>
     <t>学号</t>
   </si>
@@ -302,30 +308,121 @@
   </si>
   <si>
     <t>DaHentai</t>
+  </si>
+  <si>
+    <t>马俊伟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 @马俊伟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭圣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李天禄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖黄蓉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎津良</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘文武</t>
+  </si>
+  <si>
+    <t>李岱隆</t>
+  </si>
+  <si>
+    <t>许盛凯</t>
+  </si>
+  <si>
+    <t>23 @郭圣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 @李天禄</t>
+  </si>
+  <si>
+    <t>23 @肖黄蓉</t>
+  </si>
+  <si>
+    <t>23 @黎津良</t>
+  </si>
+  <si>
+    <t>23 @刘文武</t>
+  </si>
+  <si>
+    <t>23 @李岱隆</t>
+  </si>
+  <si>
+    <t>23 @许盛凯</t>
+  </si>
+  <si>
+    <t>TYLOO</t>
+  </si>
+  <si>
+    <t>TYLOO113</t>
+  </si>
+  <si>
+    <t>xiaoxuno111</t>
+  </si>
+  <si>
+    <t>wenwu5</t>
+  </si>
+  <si>
+    <t>majunwei</t>
+  </si>
+  <si>
+    <t>longkali</t>
+  </si>
+  <si>
+    <t>Frank1111</t>
+  </si>
+  <si>
+    <t>fxndl</t>
+  </si>
+  <si>
+    <t>Olivia.02</t>
+  </si>
+  <si>
+    <t>Olivia01</t>
+  </si>
+  <si>
+    <t>苗斓曦</t>
+  </si>
+  <si>
+    <t>23 @苗斓曦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qumingnan</t>
+  </si>
+  <si>
+    <t>Bein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
     </font>
@@ -340,6 +437,13 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -369,35 +473,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -408,10 +509,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -449,71 +550,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,7 +642,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -564,11 +665,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -577,13 +678,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -593,7 +694,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -602,7 +703,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -611,7 +712,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -619,10 +720,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -687,24 +788,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,7 +824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -736,7 +839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -747,11 +850,11 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -762,11 +865,11 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -774,14 +877,14 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -796,7 +899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>24</v>
@@ -804,14 +907,14 @@
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
@@ -822,11 +925,11 @@
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>31</v>
@@ -837,11 +940,11 @@
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>35</v>
@@ -852,11 +955,11 @@
       <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>39</v>
@@ -867,11 +970,11 @@
       <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>43</v>
@@ -882,11 +985,11 @@
       <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>47</v>
@@ -901,7 +1004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>50</v>
@@ -912,11 +1015,11 @@
       <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>54</v>
@@ -931,7 +1034,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>58</v>
@@ -939,14 +1042,14 @@
       <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>61</v>
@@ -957,11 +1060,11 @@
       <c r="D17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>65</v>
@@ -972,11 +1075,11 @@
       <c r="D18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>68</v>
@@ -987,11 +1090,11 @@
       <c r="D19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>72</v>
@@ -999,14 +1102,14 @@
       <c r="C20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>76</v>
@@ -1021,7 +1124,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>80</v>
@@ -1036,7 +1139,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>84</v>
@@ -1051,7 +1154,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>88</v>
@@ -1059,14 +1162,14 @@
       <c r="C24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>92</v>
@@ -1074,28 +1177,164 @@
       <c r="C25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="1"/>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/information.xlsx
+++ b/files/information.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\calculate_scores\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6892D8-59E8-4CF7-84D4-F2D8A1EC1840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -181,7 +175,7 @@
     <t>JunXun</t>
   </si>
   <si>
-    <t>Jun Xun86</t>
+    <t>Jun_Xun86</t>
   </si>
   <si>
     <t>颜琪翊加</t>
@@ -311,112 +305,105 @@
   </si>
   <si>
     <t>马俊伟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>23 @马俊伟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>majunwei</t>
   </si>
   <si>
     <t>郭圣</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 @郭圣</t>
+  </si>
+  <si>
+    <t>fxndl</t>
   </si>
   <si>
     <t>李天禄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 @李天禄</t>
+  </si>
+  <si>
+    <t>TYLOO</t>
+  </si>
+  <si>
+    <t>TYLOO113</t>
   </si>
   <si>
     <t>肖黄蓉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 @肖黄蓉</t>
+  </si>
+  <si>
+    <t>Olivia01</t>
+  </si>
+  <si>
+    <t>Olivia.02</t>
   </si>
   <si>
     <t>黎津良</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 @黎津良</t>
+  </si>
+  <si>
+    <t>Frank1111</t>
   </si>
   <si>
     <t>刘文武</t>
   </si>
   <si>
+    <t>23 @刘文武</t>
+  </si>
+  <si>
+    <t>wenwu5</t>
+  </si>
+  <si>
     <t>李岱隆</t>
   </si>
   <si>
+    <t>23 @李岱隆</t>
+  </si>
+  <si>
+    <t>longkali</t>
+  </si>
+  <si>
     <t>许盛凯</t>
   </si>
   <si>
-    <t>23 @郭圣</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>23 @李天禄</t>
-  </si>
-  <si>
-    <t>23 @肖黄蓉</t>
-  </si>
-  <si>
-    <t>23 @黎津良</t>
-  </si>
-  <si>
-    <t>23 @刘文武</t>
-  </si>
-  <si>
-    <t>23 @李岱隆</t>
-  </si>
-  <si>
     <t>23 @许盛凯</t>
   </si>
   <si>
-    <t>TYLOO</t>
-  </si>
-  <si>
-    <t>TYLOO113</t>
-  </si>
-  <si>
     <t>xiaoxuno111</t>
   </si>
   <si>
-    <t>wenwu5</t>
-  </si>
-  <si>
-    <t>majunwei</t>
-  </si>
-  <si>
-    <t>longkali</t>
-  </si>
-  <si>
-    <t>Frank1111</t>
-  </si>
-  <si>
-    <t>fxndl</t>
-  </si>
-  <si>
-    <t>Olivia.02</t>
-  </si>
-  <si>
-    <t>Olivia01</t>
-  </si>
-  <si>
     <t>苗斓曦</t>
   </si>
   <si>
     <t>23 @苗斓曦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bein</t>
   </si>
   <si>
     <t>qumingnan</t>
-  </si>
-  <si>
-    <t>Bein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -437,13 +424,6 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,32 +453,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -509,10 +495,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -550,71 +536,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -642,7 +628,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -665,11 +651,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -678,13 +664,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -694,7 +680,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -703,7 +689,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -712,7 +698,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -720,10 +706,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -788,26 +774,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,8 +808,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -832,14 +818,15 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -847,14 +834,15 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -865,11 +853,12 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -877,14 +866,15 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -898,8 +888,9 @@
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>24</v>
@@ -907,14 +898,15 @@
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
@@ -922,14 +914,15 @@
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>31</v>
@@ -937,14 +930,15 @@
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>35</v>
@@ -952,29 +946,31 @@
       <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>43</v>
@@ -982,14 +978,15 @@
       <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>47</v>
@@ -997,14 +994,15 @@
       <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>50</v>
@@ -1015,11 +1013,12 @@
       <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>54</v>
@@ -1033,8 +1032,9 @@
       <c r="E15" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>58</v>
@@ -1042,14 +1042,15 @@
       <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>61</v>
@@ -1057,14 +1058,15 @@
       <c r="C17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>65</v>
@@ -1075,11 +1077,12 @@
       <c r="D18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>68</v>
@@ -1087,14 +1090,15 @@
       <c r="C19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>72</v>
@@ -1102,14 +1106,15 @@
       <c r="C20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>76</v>
@@ -1117,14 +1122,15 @@
       <c r="C21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>80</v>
@@ -1138,8 +1144,9 @@
       <c r="E22" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>84</v>
@@ -1147,14 +1154,15 @@
       <c r="C23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>88</v>
@@ -1162,14 +1170,15 @@
       <c r="C24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>92</v>
@@ -1183,8 +1192,10 @@
       <c r="E25" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="5"/>
       <c r="B26" s="1" t="s">
         <v>96</v>
       </c>
@@ -1192,79 +1203,84 @@
         <v>97</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="5"/>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="5"/>
+      <c r="B28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="F28" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="5"/>
+      <c r="B29" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="5"/>
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>115</v>
@@ -1274,37 +1290,40 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="5"/>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="5"/>
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
         <v>122</v>
       </c>
@@ -1312,21 +1331,23 @@
         <v>123</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1334,7 +1355,6 @@
       <c r="F36" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>